--- a/script/DeepSTL_convert/autoware_docs/autoware_path_optimizer/result.xlsx
+++ b/script/DeepSTL_convert/autoware_docs/autoware_path_optimizer/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13160"/>
+    <workbookView windowHeight="17240"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -1298,11 +1298,14 @@
   <sheetPr/>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="7" max="7" width="101.442307692308" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
